--- a/medicine/Enfance/Maria_Lvova-Belova/Maria_Lvova-Belova.xlsx
+++ b/medicine/Enfance/Maria_Lvova-Belova/Maria_Lvova-Belova.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Maria Alekseïevna Lvova-Belova (en russe : Мария Алексеевна Львова-Белова), née le 25 octobre 1984 à Penza, est une femme politique russe.
@@ -515,14 +527,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière
-Maria Lvova-Beloga est tout d'abord professeur de guitare. En 2008, elle fonde avec Anna Kouznetsova l'association caritative Blagovest, qui a vocation à s'occuper des enfants orphelins, en foyers, et des familles nombreuses de Penza. En 2014, elle fonde le centre Quartier Louis, pour l'adaptation sociale des personnes handicapées, et se lance dans une carrière politique à l'échelle locale. En 2019, lorsque son mari fait une reconversion professionnelle, elle rejoint le parti politique Russie unie[1].
-En 2020, elle remporte le concours « leaders of Russia », compétition nationale de management, ce qui la propulse à l'échelle politique nationale. Elle devient sénatrice[1].
-Elle est depuis octobre 2021 commissaire présidentielle aux droits de l'enfant en Russie à la demande du président russe Vladimir Poutine et en remplacement d'Anna Kouznetsova devenue députée. Elle est mère de dix enfants, dont cinq adoptés, et a sous sa tutelle treize enfants en situation de handicap[1],[2].
-Guerre en Ukraine : transfert d'enfants
-Maria Lvova-Belova est accusée par des responsables ukrainiens, des ONG internationales et la Cour pénale internationale (CPI) d'avoir supervisé la déportation, le transfert et l'adoption forcés d'enfants ukrainiens lors de l'invasion russe de l'Ukraine en 2022[3],[4]. Elle participe activement à la propagande en faveur de ce programme d’État : elle intervient régulièrement à la télévision et sur les réseaux sociaux pour inciter ses concitoyens à accueillir des enfants ukrainiens, et affirme avoir elle-même adopté un adolescent de 15 ans originaire de Marioupol, « grâce au président russe », qu'elle remercie pour cela[5],[6].
-Elle fait l'objet de sanctions de l'Union européenne en raison de son implication dans des crimes de guerre lors de l'invasion russe de l'Ukraine en 2022, le transfert forcé d'enfants étant une violation des conventions de Genève et « un acte constitutif du crime de génocide tel que défini par l'Organisation des Nations unies »[1]. Son rôle est également déterminant dans l'utilisation de camps pour les enfants ukrainiens et leur endoctrinement[6].
-Le 17 mars 2023, un mandat d'arrêt international est émis par la CPI à son encontre pour crime de guerre en Ukraine, en raison de sa responsabilité dans la déportation d'enfants ukrainiens[7],[8],[9].
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Lvova-Beloga est tout d'abord professeur de guitare. En 2008, elle fonde avec Anna Kouznetsova l'association caritative Blagovest, qui a vocation à s'occuper des enfants orphelins, en foyers, et des familles nombreuses de Penza. En 2014, elle fonde le centre Quartier Louis, pour l'adaptation sociale des personnes handicapées, et se lance dans une carrière politique à l'échelle locale. En 2019, lorsque son mari fait une reconversion professionnelle, elle rejoint le parti politique Russie unie.
+En 2020, elle remporte le concours « leaders of Russia », compétition nationale de management, ce qui la propulse à l'échelle politique nationale. Elle devient sénatrice.
+Elle est depuis octobre 2021 commissaire présidentielle aux droits de l'enfant en Russie à la demande du président russe Vladimir Poutine et en remplacement d'Anna Kouznetsova devenue députée. Elle est mère de dix enfants, dont cinq adoptés, et a sous sa tutelle treize enfants en situation de handicap,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Maria_Lvova-Belova</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maria_Lvova-Belova</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Guerre en Ukraine : transfert d'enfants</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Maria Lvova-Belova est accusée par des responsables ukrainiens, des ONG internationales et la Cour pénale internationale (CPI) d'avoir supervisé la déportation, le transfert et l'adoption forcés d'enfants ukrainiens lors de l'invasion russe de l'Ukraine en 2022,. Elle participe activement à la propagande en faveur de ce programme d’État : elle intervient régulièrement à la télévision et sur les réseaux sociaux pour inciter ses concitoyens à accueillir des enfants ukrainiens, et affirme avoir elle-même adopté un adolescent de 15 ans originaire de Marioupol, « grâce au président russe », qu'elle remercie pour cela,.
+Elle fait l'objet de sanctions de l'Union européenne en raison de son implication dans des crimes de guerre lors de l'invasion russe de l'Ukraine en 2022, le transfert forcé d'enfants étant une violation des conventions de Genève et « un acte constitutif du crime de génocide tel que défini par l'Organisation des Nations unies ». Son rôle est également déterminant dans l'utilisation de camps pour les enfants ukrainiens et leur endoctrinement.
+Le 17 mars 2023, un mandat d'arrêt international est émis par la CPI à son encontre pour crime de guerre en Ukraine, en raison de sa responsabilité dans la déportation d'enfants ukrainiens.
 </t>
         </is>
       </c>
